--- a/documents/7.测试计划/测试计划版本控制模板.xlsx
+++ b/documents/7.测试计划/测试计划版本控制模板.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>***文档版本控制</t>
   </si>
@@ -62,6 +62,30 @@
   </si>
   <si>
     <t>2016-3-18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试计划1.0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>林秋霞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成大致测试计划内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试计划2.0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>林秋霞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修改系统功能结构图  2.修改测试目标  3.修改表格内容格式  4.修改用户类别，新增市用户  5.新增文档组成员许书嘉</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -153,7 +177,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -174,6 +198,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1410,7 +1437,7 @@
   <dimension ref="A1:IV12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1"/>
@@ -1423,13 +1450,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.6" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="39.6" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1438,11 +1465,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="39.6" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -1451,9 +1478,9 @@
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="39.6" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -1473,17 +1500,33 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="39.6" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="39.6" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7">
+        <v>41003</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="39.6" customHeight="1">

--- a/documents/7.测试计划/测试计划版本控制模板.xlsx
+++ b/documents/7.测试计划/测试计划版本控制模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp\www\CM-Git\documents\7.测试计划\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大三下课件\软件配置管理\测试计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>***文档版本控制</t>
   </si>
@@ -86,6 +86,26 @@
   </si>
   <si>
     <t>1.修改系统功能结构图  2.修改测试目标  3.修改表格内容格式  4.修改用户类别，新增市用户  5.新增文档组成员许书嘉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试计划3.0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>林秋霞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修改参考文档版本  2.修改测试目标，审批上报  3.修改表格内容格式  4.补充测试进度  5.新增目录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-4-5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-4-6</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1436,8 +1456,8 @@
   </sheetPr>
   <dimension ref="A1:IV12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1"/>
@@ -1503,7 +1523,7 @@
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1518,8 +1538,8 @@
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7">
-        <v>41003</v>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>15</v>
@@ -1530,10 +1550,18 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="39.6" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="39.6" customHeight="1">
